--- a/assets/disciplinas/LOB1009.xlsx
+++ b/assets/disciplinas/LOB1009.xlsx
@@ -61,7 +61,7 @@
     <t>Semestre ideal:</t>
   </si>
   <si>
-    <t>EA-1,EB-1,EP-1,EQD-1,EQN-1</t>
+    <t>EB-1,EP-1,EQD-1,EQN-1</t>
   </si>
   <si>
     <t>Objetivos:</t>

--- a/assets/disciplinas/LOB1009.xlsx
+++ b/assets/disciplinas/LOB1009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,7 +67,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Ensinar a linguagem gráfica normalizada internacionalmente para representação de máquinas e equipamentos que integram os processos de engenharia.Desenvolver o raciocínio espacial e a criatividade de representação.</t>
+    <t>5840820 - Gustavo Aristides Santana Martinez</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -76,13 +76,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5840820 - Gustavo Aristides Santana Martinez</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>-Introdução-Teoria Elementar do Desenho Projetivo-Projeções Ortogonais pelo 1º Diedro-Projeções Ortogonais pelo 3º Diedro-Leitura e Interpretação de Desenhos-Escalas-Desenhos com Instrumentos-Cortes e Representações Convencionais-Projeções Auxiliares-Cotação-Desenhos de Conjuntos e Detalhes-Aplicação de Tolerâncias e Ajustes -Símbolos de Acabamento Superficial-Desenho de Elementos de Máquina-Desenho de Equipamentos e Acessórios</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,9 +88,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1 - INTRODUÇÃOApresentação e definição da disciplina, destacando a importância do desenho na engenharia; Normas ABNT e ISO.2 - TEORIA ELEMENTAR DO DESENHO PROJETIVORepresentação de vistas como sistema internacional; representação de arestas visíveis e invisíveis; linhas de centro e eixos de simetria.3 - PROJEÇÕES ORTOGONAIS PELO 1º DIEDROPrincípio fundamental; projeções principais; rebatimentos convencionados.4 - PROJEÇÕES ORTOGONAIS PELO 3º DIEDROPrincípio fundamental; projeções principais; rebatimentos convencionados.5 - LEITURA E INTERPRETAÇÃO DE DESENHOSLeitura por meio de esboço em perspectiva e mediante construção de modelos.6 - ESCALASDefinição e normalização7 - DESENHOS COM INSTRUMENTOSRegras para emprego dos esquadros, compasso e régua "T"; disposição do desenho nas folhas padronizadas.8 - CORTES E REPRESENTAÇÕES CONVENCIONAISPrincípios fundamentais; aplicações; tipos normalizados; representações e regras para traçado; seções e rupturas.9 - PROJEÇÕES AUXILIARESPrincípios fundamentais; finalidades e aplicações; representações normalizadas.10 - COTAÇÃORegras de colocação e distribuição de cotas.11 - DESENHOS DE CONJUNTOS E DETALHESDefinições; tipos recomendados de legenda e lista de peça; formas de numeração de desenhos; regras práticas para execução e verificação de desenhos.12 - APLICAÇÃO DE TOLERÂNCIAS E AJUSTESDefinição e finalidades; sistema ISO; uso de tabelas e indicação nos desenhos.13 - SÍMBOLOS DE ACABAMENTO SUPERFICIALDefinição; simbologia normalizada; aplicações.14 - DESENHO DE ELEMENTOS DE MÁQUINADefinições, aplicações, tipos, proporções e representações convencionais de: roscas, parafusos, porcas, arruelas, polias, correias e chavetas.15 - DESENHO DE EQUIPAMENTOS E ACESSÓRIOSDesenho de conjunto e detalhes envolvendo elementos de ligação e de máquinas com aplicação de tabelas e catálogos.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -103,25 +97,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>A avaliação é continuada e constará de duas provas objetivas (Pi) realizadas ao longo do curso (antes da recuperação), bem como de exercícios práticos realizados em sala de aula e extra classe (TC/TS).</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>NOTA FINAL = [(MédiaTC/TS)x0,2] + [(MédiaPi)x0,8]</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>- A recuperação deverá consistir de uma prova englobando a matéria toda do semestre.- A média final (pós-recuperação) deverá ser composta por uma média simples entre a nota do semestre (nota final) e a da prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1 - ABNT - COLETÂNEA DE NORMAS DE DESENHO TÉCNICONormas Técnicas publicadas pela ABNT2 - DESENHO BÁSICO NA ENGENHARIARibeiro, Antonio Clélio - Apostila publicada pela FAENQUIL3 - FUNDAMENTOS DE DIBUJO EM INGENIERIALuzader, Warren J. - Ed. Comp. Editorial Continental - México4 - MANUAL DE DESENHO TÉCNICOManfé, G./ Scarato, G./ Pozza, R. - Ed. Renovada Livros Culturais Ltda.5 - EXPRESSÃO GRÁFICA - DESENHO TÉCNICOHoelsher, R. P./ Springer, C.H./ Dobrovolny, J.S. - Ed. LTC Editora S.A.6 - DESENHO TÉCNICOFrench, Thomas E. - Editora Globo7 - DESENHO TÉCNICOBachmann, A./ Forberg, R - Editora Globo8 - DESENHISTA DE MÁQUINASEscola PRO-TEC</t>
   </si>
 </sst>
 </file>
@@ -477,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -602,93 +593,85 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>27</v>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOB1009.xlsx
+++ b/assets/disciplinas/LOB1009.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -67,19 +67,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Ensinar a linguagem gráfica normalizada internacionalmente para representação de máquinas e equipamentos que integram os processos de engenharia.Desenvolver o raciocínio espacial e a criatividade de representação.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5840820 - Gustavo Aristides Santana Martinez</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>-Introdução-Teoria Elementar do Desenho Projetivo-Projeções Ortogonais pelo 1º Diedro-Projeções Ortogonais pelo 3º Diedro-Leitura e Interpretação de Desenhos-Escalas-Desenhos com Instrumentos-Cortes e Representações Convencionais-Projeções Auxiliares-Cotação-Desenhos de Conjuntos e Detalhes-Aplicação de Tolerâncias e Ajustes -Símbolos de Acabamento Superficial-Desenho de Elementos de Máquina-Desenho de Equipamentos e Acessórios</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,6 +91,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1 - INTRODUÇÃOApresentação e definição da disciplina, destacando a importância do desenho na engenharia; Normas ABNT e ISO.2 - TEORIA ELEMENTAR DO DESENHO PROJETIVORepresentação de vistas como sistema internacional; representação de arestas visíveis e invisíveis; linhas de centro e eixos de simetria.3 - PROJEÇÕES ORTOGONAIS PELO 1º DIEDROPrincípio fundamental; projeções principais; rebatimentos convencionados.4 - PROJEÇÕES ORTOGONAIS PELO 3º DIEDROPrincípio fundamental; projeções principais; rebatimentos convencionados.5 - LEITURA E INTERPRETAÇÃO DE DESENHOSLeitura por meio de esboço em perspectiva e mediante construção de modelos.6 - ESCALASDefinição e normalização7 - DESENHOS COM INSTRUMENTOSRegras para emprego dos esquadros, compasso e régua "T"; disposição do desenho nas folhas padronizadas.8 - CORTES E REPRESENTAÇÕES CONVENCIONAISPrincípios fundamentais; aplicações; tipos normalizados; representações e regras para traçado; seções e rupturas.9 - PROJEÇÕES AUXILIARESPrincípios fundamentais; finalidades e aplicações; representações normalizadas.10 - COTAÇÃORegras de colocação e distribuição de cotas.11 - DESENHOS DE CONJUNTOS E DETALHESDefinições; tipos recomendados de legenda e lista de peça; formas de numeração de desenhos; regras práticas para execução e verificação de desenhos.12 - APLICAÇÃO DE TOLERÂNCIAS E AJUSTESDefinição e finalidades; sistema ISO; uso de tabelas e indicação nos desenhos.13 - SÍMBOLOS DE ACABAMENTO SUPERFICIALDefinição; simbologia normalizada; aplicações.14 - DESENHO DE ELEMENTOS DE MÁQUINADefinições, aplicações, tipos, proporções e representações convencionais de: roscas, parafusos, porcas, arruelas, polias, correias e chavetas.15 - DESENHO DE EQUIPAMENTOS E ACESSÓRIOSDesenho de conjunto e detalhes envolvendo elementos de ligação e de máquinas com aplicação de tabelas e catálogos.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -97,22 +103,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>A avaliação é continuada e constará de duas provas objetivas (Pi) realizadas ao longo do curso (antes da recuperação), bem como de exercícios práticos realizados em sala de aula e extra classe (TC/TS).</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>A avaliação é continuada e constará de duas provas objetivas (Pi) realizadas ao longo do curso (antes da recuperação), bem como de exercícios práticos realizados em sala de aula e extra classe (TC/TS).</t>
+    <t>NOTA FINAL = [(MédiaTC/TS)x0,2] + [(MédiaPi)x0,8]</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>NOTA FINAL = [(MédiaTC/TS)x0,2] + [(MédiaPi)x0,8]</t>
+    <t>- A recuperação deverá consistir de uma prova englobando a matéria toda do semestre.- A média final (pós-recuperação) deverá ser composta por uma média simples entre a nota do semestre (nota final) e a da prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>- A recuperação deverá consistir de uma prova englobando a matéria toda do semestre.- A média final (pós-recuperação) deverá ser composta por uma média simples entre a nota do semestre (nota final) e a da prova de recuperação.</t>
+    <t>1 - ABNT - COLETÂNEA DE NORMAS DE DESENHO TÉCNICONormas Técnicas publicadas pela ABNT2 - DESENHO BÁSICO NA ENGENHARIARibeiro, Antonio Clélio - Apostila publicada pela FAENQUIL3 - FUNDAMENTOS DE DIBUJO EM INGENIERIALuzader, Warren J. - Ed. Comp. Editorial Continental - México4 - MANUAL DE DESENHO TÉCNICOManfé, G./ Scarato, G./ Pozza, R. - Ed. Renovada Livros Culturais Ltda.5 - EXPRESSÃO GRÁFICA - DESENHO TÉCNICOHoelsher, R. P./ Springer, C.H./ Dobrovolny, J.S. - Ed. LTC Editora S.A.6 - DESENHO TÉCNICOFrench, Thomas E. - Editora Globo7 - DESENHO TÉCNICOBachmann, A./ Forberg, R - Editora Globo8 - DESENHISTA DE MÁQUINASEscola PRO-TEC</t>
   </si>
 </sst>
 </file>
@@ -468,13 +477,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -593,85 +602,93 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
